--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35265.91588248455</v>
+        <v>7011889.940520129</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35265.91588248455</v>
+        <v>7011889.940520129</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21587.6103796701</v>
+        <v>1298243.875372485</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21587.6103796701</v>
+        <v>1298243.875372485</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267094095.117723</v>
+        <v>51996134.74959061</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12206.77783357913</v>
+        <v>1332300.487628692</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22470.46556913606</v>
+        <v>2344163.558673493</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32734.15330469295</v>
+        <v>3356026.629718297</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43437.46727390348</v>
+        <v>4365724.265464841</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>54141.52751595197</v>
+        <v>5375789.733145881</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>64846.49237506785</v>
+        <v>6385855.200826917</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>75551.65474595923</v>
+        <v>7395920.668507951</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86256.81711685062</v>
+        <v>8405986.136188984</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>96962.99743592956</v>
+        <v>9415834.897949452</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>107660.4398114155</v>
+        <v>10426567.40582439</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>118356.8875169587</v>
+        <v>11437101.97438072</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>129053.3352225018</v>
+        <v>12447636.54293706</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>139749.782928045</v>
+        <v>13458171.1114934</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>150453.9338981952</v>
+        <v>14467874.66130011</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>161166.7509312455</v>
+        <v>15475951.10600531</v>
       </c>
     </row>
   </sheetData>
@@ -27037,19 +27037,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>288</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>782</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
